--- a/EngineTesting/Win32/ReleaseWindows/Resource/CSVTesting/CSVHeadTesting.xlsx
+++ b/EngineTesting/Win32/ReleaseWindows/Resource/CSVTesting/CSVHeadTesting.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13890" windowHeight="7920"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="160">
   <si>
     <t>@default</t>
   </si>
@@ -100,6 +113,9 @@
     <t>测试25</t>
   </si>
   <si>
+    <t>测试26</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -181,6 +197,9 @@
     <t>intVector4[]</t>
   </si>
   <si>
+    <t>string[]</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -260,6 +279,9 @@
   </si>
   <si>
     <t>test25</t>
+  </si>
+  <si>
+    <t>test26</t>
   </si>
   <si>
     <t>true</t>
@@ -490,12 +512,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -503,71 +525,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -582,6 +539,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,14 +585,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,7 +622,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -659,25 +681,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,157 +849,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,45 +872,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -925,6 +908,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -942,6 +955,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -955,148 +977,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,52 +1141,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1466,8 +1488,8 @@
   <sheetPr/>
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5:AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1579,670 +1601,696 @@
       <c r="AA2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" s="4">
         <v>10001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E5" s="4">
         <v>10001</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S5" s="4">
         <v>10001</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>101</v>
-      </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" s="4">
         <v>10002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E6" s="4">
         <v>10002</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="S6" s="4">
         <v>10002</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>111</v>
-      </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" s="4">
         <v>10003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E7" s="4">
         <v>10003</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O7" s="4">
         <v>10003</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="Z7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>122</v>
+      <c r="AB7" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" s="4">
         <v>10004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E8" s="4">
         <v>10004</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O8" s="4">
         <v>10004</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="S8" s="4">
         <v>10004</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="AA8" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="A9" s="4">
         <v>10005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E9" s="4">
         <v>10005</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O9" s="4">
         <v>10005</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="S9" s="4">
         <v>10005</v>
       </c>
       <c r="T9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="V9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>147</v>
-      </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="A10" s="4">
         <v>10006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E10" s="4">
         <v>10006</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O10" s="4">
         <v>10006</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="S10" s="4">
         <v>10006</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="V10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
